--- a/templets/example.xlsx
+++ b/templets/example.xlsx
@@ -9,15 +9,12 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t>提交人</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>["2020-02-27 08:55:33",117.98918131510416,24.608484157986112,"福建省厦门市集美区灌口镇灌口街122号",65]</t>
   </si>
@@ -52,56 +49,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>张三</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135012019001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135012019002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>李四</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>学号/序号</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135022019001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>王五</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135032019099</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>小可爱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>135032019100</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>卓玛</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>["2020-02-27 11:27:48",95.170533,31.589874,"西藏自治区昌都市丁青县317国道",550]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>["2020-02-28 08:04:16",104.404036,31.09845,"四川省德阳市旌阳区鞍山路9号靠近华西建筑设计院",30]</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>提交人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>135012019001 张三</t>
+  </si>
+  <si>
+    <t>135012019002 李四</t>
+  </si>
+  <si>
+    <t>135022019001 王五</t>
+  </si>
+  <si>
+    <t>135032019099 小可爱</t>
+  </si>
+  <si>
+    <t>135032019100 卓玛</t>
   </si>
 </sst>
 </file>
@@ -144,7 +116,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -161,6 +133,15 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -466,102 +447,84 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="13.875" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9" style="3"/>
-    <col min="3" max="4" width="40" style="3" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="21.875" style="9" customWidth="1"/>
+    <col min="2" max="2" width="34.375" style="3" customWidth="1"/>
+    <col min="3" max="3" width="40" style="3" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:3" s="5" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A2" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A4" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>9</v>
-      </c>
     </row>
-    <row r="2" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="2" t="s">
+    <row r="5" spans="1:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="A5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6" t="s">
+    </row>
+    <row r="6" spans="1:3" ht="40.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A3" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="A5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="40.5" x14ac:dyDescent="0.15">
-      <c r="A6" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
